--- a/data/ok.xlsx
+++ b/data/ok.xlsx
@@ -16,6 +16,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MATHEMATICS" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INFORMATICS PRAC. (NEW)" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PHYSICAL EDUCATION" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="95 PLUS" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Between 90 to 95" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Between 85 to 90" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Between 70 to 85" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Between 65 to 70" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Between 45 to 65" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Below 40" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7170,6 +7177,7119 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ENGLISH CORE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INFORMATICS PRAC. (NEW)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICAL EDUCATION</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Over All</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Best(5)(Best 4 + ENGLISH CORE)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Compartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ENGLISH CORE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INFORMATICS PRAC. (NEW)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICAL EDUCATION</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Over All</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Best(5)(Best 4 + ENGLISH CORE)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Compartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2178400</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KRISHN RAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>500</v>
+      </c>
+      <c r="S3" t="n">
+        <v>454</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>500</v>
+      </c>
+      <c r="W3" t="n">
+        <v>454</v>
+      </c>
+      <c r="X3" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2178469</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KRISHN RAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>500</v>
+      </c>
+      <c r="S4" t="n">
+        <v>454</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>500</v>
+      </c>
+      <c r="W4" t="n">
+        <v>454</v>
+      </c>
+      <c r="X4" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2178469</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>KRISHN RAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>500</v>
+      </c>
+      <c r="S5" t="n">
+        <v>454</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>500</v>
+      </c>
+      <c r="W5" t="n">
+        <v>454</v>
+      </c>
+      <c r="X5" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2178469</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>KRISHN RAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>500</v>
+      </c>
+      <c r="S6" t="n">
+        <v>454</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>500</v>
+      </c>
+      <c r="W6" t="n">
+        <v>454</v>
+      </c>
+      <c r="X6" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2178469</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KRISHN RAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>500</v>
+      </c>
+      <c r="S7" t="n">
+        <v>454</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>500</v>
+      </c>
+      <c r="W7" t="n">
+        <v>454</v>
+      </c>
+      <c r="X7" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2178469</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KRISHN RAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>500</v>
+      </c>
+      <c r="S8" t="n">
+        <v>454</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>500</v>
+      </c>
+      <c r="W8" t="n">
+        <v>454</v>
+      </c>
+      <c r="X8" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2178469</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KRISHN RAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>500</v>
+      </c>
+      <c r="S9" t="n">
+        <v>454</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>500</v>
+      </c>
+      <c r="W9" t="n">
+        <v>454</v>
+      </c>
+      <c r="X9" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2167848</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ADARSH PANDEY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>500</v>
+      </c>
+      <c r="S10" t="n">
+        <v>450</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>500</v>
+      </c>
+      <c r="W10" t="n">
+        <v>450</v>
+      </c>
+      <c r="X10" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2167848</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ADARSH PANDEY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>500</v>
+      </c>
+      <c r="S11" t="n">
+        <v>450</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>500</v>
+      </c>
+      <c r="W11" t="n">
+        <v>450</v>
+      </c>
+      <c r="X11" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2167848</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ADARSH PANDEY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>500</v>
+      </c>
+      <c r="S12" t="n">
+        <v>450</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>500</v>
+      </c>
+      <c r="W12" t="n">
+        <v>450</v>
+      </c>
+      <c r="X12" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2167848</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ADARSH PANDEY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>500</v>
+      </c>
+      <c r="S13" t="n">
+        <v>450</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>500</v>
+      </c>
+      <c r="W13" t="n">
+        <v>450</v>
+      </c>
+      <c r="X13" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2167848</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ADARSH PANDEY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>500</v>
+      </c>
+      <c r="S14" t="n">
+        <v>450</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>500</v>
+      </c>
+      <c r="W14" t="n">
+        <v>450</v>
+      </c>
+      <c r="X14" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2167848</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ADARSH PANDEY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>500</v>
+      </c>
+      <c r="S15" t="n">
+        <v>450</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>500</v>
+      </c>
+      <c r="W15" t="n">
+        <v>450</v>
+      </c>
+      <c r="X15" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2167848</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ADARSH PANDEY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>500</v>
+      </c>
+      <c r="S16" t="n">
+        <v>450</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>500</v>
+      </c>
+      <c r="W16" t="n">
+        <v>450</v>
+      </c>
+      <c r="X16" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ENGLISH CORE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INFORMATICS PRAC. (NEW)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICAL EDUCATION</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Over All</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Best(5)(Best 4 + ENGLISH CORE)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Compartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2167845</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ABHIJEET PAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>500</v>
+      </c>
+      <c r="S3" t="n">
+        <v>445</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>500</v>
+      </c>
+      <c r="W3" t="n">
+        <v>445</v>
+      </c>
+      <c r="X3" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2167845</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ABHIJEET PAL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>500</v>
+      </c>
+      <c r="S4" t="n">
+        <v>445</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>500</v>
+      </c>
+      <c r="W4" t="n">
+        <v>445</v>
+      </c>
+      <c r="X4" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2167845</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ABHIJEET PAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>500</v>
+      </c>
+      <c r="S5" t="n">
+        <v>445</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>500</v>
+      </c>
+      <c r="W5" t="n">
+        <v>445</v>
+      </c>
+      <c r="X5" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2167845</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ABHIJEET PAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>500</v>
+      </c>
+      <c r="S6" t="n">
+        <v>445</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>500</v>
+      </c>
+      <c r="W6" t="n">
+        <v>445</v>
+      </c>
+      <c r="X6" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2167845</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABHIJEET PAL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>500</v>
+      </c>
+      <c r="S7" t="n">
+        <v>445</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>500</v>
+      </c>
+      <c r="W7" t="n">
+        <v>445</v>
+      </c>
+      <c r="X7" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2167845</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ABHIJEET PAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>500</v>
+      </c>
+      <c r="S8" t="n">
+        <v>445</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>500</v>
+      </c>
+      <c r="W8" t="n">
+        <v>445</v>
+      </c>
+      <c r="X8" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2167845</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ABHIJEET PAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>500</v>
+      </c>
+      <c r="S9" t="n">
+        <v>445</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>500</v>
+      </c>
+      <c r="W9" t="n">
+        <v>445</v>
+      </c>
+      <c r="X9" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2167871</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RAMA KUMAR</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>500</v>
+      </c>
+      <c r="S10" t="n">
+        <v>441</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>500</v>
+      </c>
+      <c r="W10" t="n">
+        <v>441</v>
+      </c>
+      <c r="X10" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2167871</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RAMA KUMAR</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>500</v>
+      </c>
+      <c r="S11" t="n">
+        <v>441</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>500</v>
+      </c>
+      <c r="W11" t="n">
+        <v>441</v>
+      </c>
+      <c r="X11" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2167871</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RAMA KUMAR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>500</v>
+      </c>
+      <c r="S12" t="n">
+        <v>441</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>500</v>
+      </c>
+      <c r="W12" t="n">
+        <v>441</v>
+      </c>
+      <c r="X12" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2167871</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RAMA KUMAR</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>500</v>
+      </c>
+      <c r="S13" t="n">
+        <v>441</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>500</v>
+      </c>
+      <c r="W13" t="n">
+        <v>441</v>
+      </c>
+      <c r="X13" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2167871</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RAMA KUMAR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>500</v>
+      </c>
+      <c r="S14" t="n">
+        <v>441</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>500</v>
+      </c>
+      <c r="W14" t="n">
+        <v>441</v>
+      </c>
+      <c r="X14" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2167871</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RAMA KUMAR</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>500</v>
+      </c>
+      <c r="S15" t="n">
+        <v>441</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>500</v>
+      </c>
+      <c r="W15" t="n">
+        <v>441</v>
+      </c>
+      <c r="X15" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2167871</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RAMA KUMAR</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>500</v>
+      </c>
+      <c r="S16" t="n">
+        <v>441</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>500</v>
+      </c>
+      <c r="W16" t="n">
+        <v>441</v>
+      </c>
+      <c r="X16" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2167846</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>500</v>
+      </c>
+      <c r="S17" t="n">
+        <v>431</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>500</v>
+      </c>
+      <c r="W17" t="n">
+        <v>431</v>
+      </c>
+      <c r="X17" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2933210</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MAYANK PATHAK</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>500</v>
+      </c>
+      <c r="S18" t="n">
+        <v>431</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>500</v>
+      </c>
+      <c r="W18" t="n">
+        <v>431</v>
+      </c>
+      <c r="X18" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>COMP</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>BIOLOGY (044), POLITICAL SCIENCE (028), HISTORY (027)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2167846</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>500</v>
+      </c>
+      <c r="S19" t="n">
+        <v>431</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>500</v>
+      </c>
+      <c r="W19" t="n">
+        <v>431</v>
+      </c>
+      <c r="X19" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2167846</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>500</v>
+      </c>
+      <c r="S20" t="n">
+        <v>431</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>500</v>
+      </c>
+      <c r="W20" t="n">
+        <v>431</v>
+      </c>
+      <c r="X20" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2167846</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>500</v>
+      </c>
+      <c r="S21" t="n">
+        <v>431</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>500</v>
+      </c>
+      <c r="W21" t="n">
+        <v>431</v>
+      </c>
+      <c r="X21" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2167846</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>500</v>
+      </c>
+      <c r="S22" t="n">
+        <v>431</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>500</v>
+      </c>
+      <c r="W22" t="n">
+        <v>431</v>
+      </c>
+      <c r="X22" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2167846</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>500</v>
+      </c>
+      <c r="S23" t="n">
+        <v>431</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>500</v>
+      </c>
+      <c r="W23" t="n">
+        <v>431</v>
+      </c>
+      <c r="X23" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2167846</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>500</v>
+      </c>
+      <c r="S24" t="n">
+        <v>431</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>500</v>
+      </c>
+      <c r="W24" t="n">
+        <v>431</v>
+      </c>
+      <c r="X24" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ENGLISH CORE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INFORMATICS PRAC. (NEW)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICAL EDUCATION</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Over All</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Best(5)(Best 4 + ENGLISH CORE)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Compartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2167851</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEV SHARMA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>500</v>
+      </c>
+      <c r="S3" t="n">
+        <v>416</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>500</v>
+      </c>
+      <c r="W3" t="n">
+        <v>416</v>
+      </c>
+      <c r="X3" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2167851</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEV SHARMA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>500</v>
+      </c>
+      <c r="S4" t="n">
+        <v>416</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>500</v>
+      </c>
+      <c r="W4" t="n">
+        <v>416</v>
+      </c>
+      <c r="X4" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2167851</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DEV SHARMA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>500</v>
+      </c>
+      <c r="S5" t="n">
+        <v>416</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>500</v>
+      </c>
+      <c r="W5" t="n">
+        <v>416</v>
+      </c>
+      <c r="X5" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2167851</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DEV SHARMA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>500</v>
+      </c>
+      <c r="S6" t="n">
+        <v>416</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>500</v>
+      </c>
+      <c r="W6" t="n">
+        <v>416</v>
+      </c>
+      <c r="X6" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2167849</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ADITYA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>083</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>500</v>
+      </c>
+      <c r="S7" t="n">
+        <v>396</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>500</v>
+      </c>
+      <c r="W7" t="n">
+        <v>396</v>
+      </c>
+      <c r="X7" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2167849</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ADITYA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>083</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>500</v>
+      </c>
+      <c r="S8" t="n">
+        <v>396</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>500</v>
+      </c>
+      <c r="W8" t="n">
+        <v>396</v>
+      </c>
+      <c r="X8" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2167849</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ADITYA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>083</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>500</v>
+      </c>
+      <c r="S9" t="n">
+        <v>396</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>500</v>
+      </c>
+      <c r="W9" t="n">
+        <v>396</v>
+      </c>
+      <c r="X9" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2167849</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ADITYA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>083</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>500</v>
+      </c>
+      <c r="S10" t="n">
+        <v>396</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>500</v>
+      </c>
+      <c r="W10" t="n">
+        <v>396</v>
+      </c>
+      <c r="X10" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2167849</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ADITYA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>083</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>500</v>
+      </c>
+      <c r="S11" t="n">
+        <v>396</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>500</v>
+      </c>
+      <c r="W11" t="n">
+        <v>396</v>
+      </c>
+      <c r="X11" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2167849</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ADITYA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>083</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>500</v>
+      </c>
+      <c r="S12" t="n">
+        <v>396</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>500</v>
+      </c>
+      <c r="W12" t="n">
+        <v>396</v>
+      </c>
+      <c r="X12" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2167849</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ADITYA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>083</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>500</v>
+      </c>
+      <c r="S13" t="n">
+        <v>396</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>500</v>
+      </c>
+      <c r="W13" t="n">
+        <v>396</v>
+      </c>
+      <c r="X13" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2178470</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ANUL YADAV</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>065</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>079</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>600</v>
+      </c>
+      <c r="S14" t="n">
+        <v>441</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>500</v>
+      </c>
+      <c r="W14" t="n">
+        <v>383</v>
+      </c>
+      <c r="X14" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ENGLISH CORE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INFORMATICS PRAC. (NEW)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICAL EDUCATION</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Over All</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Best(5)(Best 4 + ENGLISH CORE)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Compartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ENGLISH CORE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INFORMATICS PRAC. (NEW)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICAL EDUCATION</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Over All</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Best(5)(Best 4 + ENGLISH CORE)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Compartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2167847</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ABHISHEK YADAV</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>500</v>
+      </c>
+      <c r="S3" t="n">
+        <v>285</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>500</v>
+      </c>
+      <c r="W3" t="n">
+        <v>285</v>
+      </c>
+      <c r="X3" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2167847</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ABHISHEK YADAV</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>500</v>
+      </c>
+      <c r="S4" t="n">
+        <v>285</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>500</v>
+      </c>
+      <c r="W4" t="n">
+        <v>285</v>
+      </c>
+      <c r="X4" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2167847</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ABHISHEK YADAV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>500</v>
+      </c>
+      <c r="S5" t="n">
+        <v>285</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>500</v>
+      </c>
+      <c r="W5" t="n">
+        <v>285</v>
+      </c>
+      <c r="X5" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2167847</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ABHISHEK YADAV</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>500</v>
+      </c>
+      <c r="S6" t="n">
+        <v>285</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>500</v>
+      </c>
+      <c r="W6" t="n">
+        <v>285</v>
+      </c>
+      <c r="X6" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2167847</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABHISHEK YADAV</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>500</v>
+      </c>
+      <c r="S7" t="n">
+        <v>285</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>500</v>
+      </c>
+      <c r="W7" t="n">
+        <v>285</v>
+      </c>
+      <c r="X7" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2167847</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ABHISHEK YADAV</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>500</v>
+      </c>
+      <c r="S8" t="n">
+        <v>285</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>500</v>
+      </c>
+      <c r="W8" t="n">
+        <v>285</v>
+      </c>
+      <c r="X8" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2167847</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ABHISHEK YADAV</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>500</v>
+      </c>
+      <c r="S9" t="n">
+        <v>285</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>500</v>
+      </c>
+      <c r="W9" t="n">
+        <v>285</v>
+      </c>
+      <c r="X9" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ENGLISH CORE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CHEMISTRY</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BIOLOGY</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MATHEMATICS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INFORMATICS PRAC. (NEW)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PHYSICAL EDUCATION</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Over All</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Best(5)(Best 4 + ENGLISH CORE)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Compartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MARKS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>GRADES</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2949002</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SHIVANI CHOPRA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>500</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>500</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>ABST</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
